--- a/Transportation data analysis/transport_data.xlsx
+++ b/Transportation data analysis/transport_data.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Techdome\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deves\Documents\GitHub\Power Bi\Transportation data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F3BDEA-3586-4E7A-8672-43C1BD92FEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF3E107-01C8-4F73-9A6F-279336CF4778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirements" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Worksheet!$A$1:$R$1809</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$R$1809</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$C$10:$C$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14482" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14514" uniqueCount="661">
   <si>
     <t>TripID</t>
   </si>
@@ -1911,27 +1913,259 @@
   <si>
     <t>08-09-2016</t>
   </si>
+  <si>
+    <t>Balaji Transport Data Analysis Project</t>
+  </si>
+  <si>
+    <t>Requirements:</t>
+  </si>
+  <si>
+    <t>Balaji Transport is seeking to gain deeper insights into its operational and financial performance through data analysis. With a focus on optimizing efficiency, reducing costs, and enhancing service delivery, the company aims to analyze key data points across various aspects of its logistics and transportation services.</t>
+  </si>
+  <si>
+    <t>Analysis Questions:</t>
+  </si>
+  <si>
+    <t>How many trips are completed per shipper, and how do their average delivery times compare?</t>
+  </si>
+  <si>
+    <t>2. Cost &amp; Revenue Analysis</t>
+  </si>
+  <si>
+    <r>
+      <t>What is the overall profit margin per trip (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Revenue - ShippingCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)?</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Capacity &amp; Utilization</t>
+  </si>
+  <si>
+    <t>4. Customer Insights</t>
+  </si>
+  <si>
+    <t>Which customers have the most shipments?</t>
+  </si>
+  <si>
+    <t>5. Geographic Insights</t>
+  </si>
+  <si>
+    <t>What are the most common lanes (routes) used?</t>
+  </si>
+  <si>
+    <t>6. Trip Trends &amp; Volume</t>
+  </si>
+  <si>
+    <t>What is the trend of average shipping cost over time?</t>
+  </si>
+  <si>
+    <t>7. Performance Monitoring</t>
+  </si>
+  <si>
+    <t>1. Operational Efficiency</t>
+  </si>
+  <si>
+    <r>
+      <t>What is the average shipping duration (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ShipDays</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>) by origin to destination state?</t>
+    </r>
+  </si>
+  <si>
+    <t>Which routes (Origin city-Destination city pairs) have the longest and shortest average delivery times?</t>
+  </si>
+  <si>
+    <t>Which trips or routes generate the highest revenue?</t>
+  </si>
+  <si>
+    <t>What is the cost per mile and revenue per mile for different trip?</t>
+  </si>
+  <si>
+    <t>What is the average truck capacity?</t>
+  </si>
+  <si>
+    <t>Average capacity by trip type?</t>
+  </si>
+  <si>
+    <t>Calculate load factor?</t>
+  </si>
+  <si>
+    <t>Find top 10 customer by total profit?</t>
+  </si>
+  <si>
+    <t>Which customers are associated with the longest shipping times?</t>
+  </si>
+  <si>
+    <t>Which cities are the most frequent origins and destinations?</t>
+  </si>
+  <si>
+    <t>How do revenue and cost vary by origin state?</t>
+  </si>
+  <si>
+    <t>How many trips are completed each month?</t>
+  </si>
+  <si>
+    <t>Are there any seasonal trends in shipping volume?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Which trips exceed expected delivery time (Average </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ShipDays</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>) compared to actual (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>DeliveryDate - ShipDate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)?</t>
+    </r>
+  </si>
+  <si>
+    <t>How many checkpoints are passed per trip, and how do they correlate with delays?</t>
+  </si>
+  <si>
+    <t>Which shipper is the most reliable in terms of on-time delivery?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1939,12 +2173,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2248,68 +2590,622 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F8DED7-A5AD-4BA6-920F-4C33D982B35F}">
+  <dimension ref="B1:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="4" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="16" t="s">
+        <v>641</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="2:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:K7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1809"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
